--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>地图id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,11 +32,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map/scene1/scene1.tmx</t>
-  </si>
-  <si>
-    <t>map/scene1/scene1.tmx</t>
+    <t>map/scene1/scene1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map/scene1/scene2</t>
+  </si>
+  <si>
+    <t>map/scene1/scene3</t>
+  </si>
+  <si>
+    <t>map/scene1/scene4</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -447,7 +453,7 @@
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -455,7 +461,7 @@
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -463,7 +469,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -471,11 +477,12 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>地图id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>map/scene1/scene4</t>
+  </si>
+  <si>
+    <t>怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -74,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -82,15 +90,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,58 +476,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>10002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2"/>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>10003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>10004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2"/>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>700</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -36,9 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map/scene1/scene2</t>
-  </si>
-  <si>
     <t>map/scene1/scene3</t>
   </si>
   <si>
@@ -50,6 +47,10 @@
   </si>
   <si>
     <t>间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map/scene2/scene2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,11 +123,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -134,9 +138,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,200 +480,200 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>10001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3">
-        <v>2</v>
+        <v>100001</v>
       </c>
       <c r="D3">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4">
-        <v>3</v>
+        <v>100001</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
       <c r="C5">
-        <v>4</v>
+        <v>100001</v>
       </c>
       <c r="D5">
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>10002</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>100001</v>
       </c>
       <c r="D6">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7">
-        <v>4</v>
+        <v>100001</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
       <c r="C8">
-        <v>4</v>
+        <v>100001</v>
       </c>
       <c r="D8">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
       <c r="C9">
-        <v>5</v>
+        <v>100001</v>
       </c>
       <c r="D9">
         <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>10003</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>100001</v>
+      </c>
+      <c r="D10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11">
+        <v>100001</v>
+      </c>
+      <c r="D11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12">
+        <v>100001</v>
+      </c>
+      <c r="D12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13">
+        <v>100001</v>
+      </c>
+      <c r="D13">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>10004</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C14">
-        <v>6</v>
+        <v>100001</v>
       </c>
       <c r="D14">
         <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15">
-        <v>6</v>
+        <v>100001</v>
       </c>
       <c r="D15">
         <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16">
-        <v>6</v>
+        <v>100001</v>
       </c>
       <c r="D16">
         <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
       <c r="C17">
-        <v>7</v>
+        <v>100001</v>
       </c>
       <c r="D17">
         <v>700</v>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map/scene2/scene2</t>
+    <t>map/scene2/scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -22,17 +22,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>地图id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地图资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map/scene1/scene1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,7 +476,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -508,7 +504,7 @@
         <v>10001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>100001</v>
@@ -552,7 +548,7 @@
         <v>10002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>100001</v>
@@ -596,7 +592,7 @@
         <v>10003</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>100001</v>
@@ -640,7 +636,7 @@
         <v>10004</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>100001</v>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>地图id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,46 @@
   </si>
   <si>
     <t>map/scene2/scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墓地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map/iceland/iceland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map/land/land</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,7 +525,7 @@
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,13 +538,16 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>10001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>100001</v>
@@ -512,8 +555,11 @@
       <c r="D2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3">
@@ -522,8 +568,9 @@
       <c r="D3">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4">
@@ -532,8 +579,9 @@
       <c r="D4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5">
@@ -542,8 +590,9 @@
       <c r="D5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>10002</v>
       </c>
@@ -556,8 +605,11 @@
       <c r="D6">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7">
@@ -566,8 +618,9 @@
       <c r="D7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8">
@@ -576,8 +629,9 @@
       <c r="D8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9">
@@ -586,9 +640,10 @@
       <c r="D9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>10003</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -600,9 +655,12 @@
       <c r="D10">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11">
         <v>100001</v>
@@ -610,9 +668,10 @@
       <c r="D11">
         <v>700</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12">
         <v>100001</v>
@@ -620,9 +679,10 @@
       <c r="D12">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
       <c r="B13" s="4"/>
       <c r="C13">
         <v>100001</v>
@@ -630,13 +690,14 @@
       <c r="D13">
         <v>700</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>10004</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>100001</v>
@@ -644,8 +705,11 @@
       <c r="D14">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15">
@@ -654,8 +718,9 @@
       <c r="D15">
         <v>700</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16">
@@ -664,8 +729,9 @@
       <c r="D16">
         <v>700</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17">
@@ -674,9 +740,173 @@
       <c r="D17">
         <v>700</v>
       </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>100001</v>
+      </c>
+      <c r="D18">
+        <v>700</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19">
+        <v>100001</v>
+      </c>
+      <c r="D19">
+        <v>700</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20">
+        <v>100001</v>
+      </c>
+      <c r="D20">
+        <v>700</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21">
+        <v>100001</v>
+      </c>
+      <c r="D21">
+        <v>700</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>10006</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>100001</v>
+      </c>
+      <c r="D22">
+        <v>700</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23">
+        <v>100001</v>
+      </c>
+      <c r="D23">
+        <v>700</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24">
+        <v>100001</v>
+      </c>
+      <c r="D24">
+        <v>700</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25">
+        <v>100001</v>
+      </c>
+      <c r="D25">
+        <v>700</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>10007</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>100001</v>
+      </c>
+      <c r="D26">
+        <v>700</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27">
+        <v>100001</v>
+      </c>
+      <c r="D27">
+        <v>700</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28">
+        <v>100001</v>
+      </c>
+      <c r="D28">
+        <v>700</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29">
+        <v>100001</v>
+      </c>
+      <c r="D29">
+        <v>700</v>
+      </c>
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="21">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A2:A5"/>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>地图id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,13 @@
   <si>
     <t>map/land/land</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroroom_upgradeIcons_0001</t>
   </si>
 </sst>
 </file>
@@ -161,6 +168,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -171,9 +181,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,19 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,12 +549,15 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
         <v>10001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2">
@@ -555,48 +566,51 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
       <c r="C3">
         <v>100001</v>
       </c>
       <c r="D3">
         <v>500</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4">
         <v>100001</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
       <c r="C5">
         <v>100001</v>
       </c>
       <c r="D5">
         <v>500</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>10002</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -605,48 +619,51 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>100001</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>100001</v>
       </c>
       <c r="D8">
         <v>500</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>100001</v>
       </c>
       <c r="D9">
         <v>700</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
         <v>10003</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10">
@@ -655,48 +672,51 @@
       <c r="D10">
         <v>700</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>100001</v>
       </c>
       <c r="D11">
         <v>700</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>100001</v>
       </c>
       <c r="D12">
         <v>700</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>100001</v>
       </c>
       <c r="D13">
         <v>700</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>10004</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14">
@@ -705,48 +725,51 @@
       <c r="D14">
         <v>700</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>100001</v>
       </c>
       <c r="D15">
         <v>700</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>100001</v>
       </c>
       <c r="D16">
         <v>700</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>100001</v>
       </c>
       <c r="D17">
         <v>700</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="6">
         <v>10005</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C18">
@@ -755,48 +778,51 @@
       <c r="D18">
         <v>700</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19">
         <v>100001</v>
       </c>
       <c r="D19">
         <v>700</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>100001</v>
       </c>
       <c r="D20">
         <v>700</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>100001</v>
       </c>
       <c r="D21">
         <v>700</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>10006</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C22">
@@ -805,48 +831,51 @@
       <c r="D22">
         <v>700</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>100001</v>
       </c>
       <c r="D23">
         <v>700</v>
       </c>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
       <c r="C24">
         <v>100001</v>
       </c>
       <c r="D24">
         <v>700</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25">
         <v>100001</v>
       </c>
       <c r="D25">
         <v>700</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="6">
         <v>10007</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C26">
@@ -855,53 +884,48 @@
       <c r="D26">
         <v>700</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27">
         <v>100001</v>
       </c>
       <c r="D27">
         <v>700</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28">
         <v>100001</v>
       </c>
       <c r="D28">
         <v>700</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5"/>
       <c r="C29">
         <v>100001</v>
       </c>
       <c r="D29">
         <v>700</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E22:E25"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
@@ -915,6 +939,14 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E22:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/share/data/design/地图信息.xlsx
+++ b/share/data/design/地图信息.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>地图id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,7 +94,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heroroom_upgradeIcons_0001</t>
+    <t>screen_map_stage_thumbs-1</t>
+  </si>
+  <si>
+    <t>screen_map_stage_thumbs-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_map_stage_thumbs-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_map_stage_thumbs-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_map_stage_thumbs-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_map_stage_thumbs-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_map_stage_thumbs-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;草原&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;城镇&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;皇宫&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;冰岛&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;墓地&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;沼泽&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;火山&lt;/c&gt;\n&lt;color=#0fffff&gt;这个地图有许多来自远古的怪物，\n&lt;/color&gt;赶快来击杀他们吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -158,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,9 +222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +234,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,20 +579,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,15 +609,18 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
         <v>10001</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C2">
@@ -566,51 +629,60 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3">
         <v>100001</v>
       </c>
       <c r="D3">
         <v>500</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4">
         <v>100001</v>
       </c>
       <c r="D4">
         <v>500</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
       <c r="C5">
         <v>100001</v>
       </c>
       <c r="D5">
         <v>500</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>10002</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6">
@@ -619,51 +691,60 @@
       <c r="D6">
         <v>500</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
       <c r="C7">
         <v>100001</v>
       </c>
       <c r="D7">
         <v>500</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4"/>
       <c r="C8">
         <v>100001</v>
       </c>
       <c r="D8">
         <v>500</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4"/>
       <c r="C9">
         <v>100001</v>
       </c>
       <c r="D9">
         <v>700</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>10003</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C10">
@@ -672,51 +753,60 @@
       <c r="D10">
         <v>700</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11">
         <v>100001</v>
       </c>
       <c r="D11">
         <v>700</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12">
         <v>100001</v>
       </c>
       <c r="D12">
         <v>700</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4"/>
       <c r="C13">
         <v>100001</v>
       </c>
       <c r="D13">
         <v>700</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>10004</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14">
@@ -725,51 +815,60 @@
       <c r="D14">
         <v>700</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4"/>
       <c r="C15">
         <v>100001</v>
       </c>
       <c r="D15">
         <v>700</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4"/>
       <c r="C16">
         <v>100001</v>
       </c>
       <c r="D16">
         <v>700</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4"/>
       <c r="C17">
         <v>100001</v>
       </c>
       <c r="D17">
         <v>700</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="6">
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
         <v>10005</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C18">
@@ -778,51 +877,60 @@
       <c r="D18">
         <v>700</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
       <c r="C19">
         <v>100001</v>
       </c>
       <c r="D19">
         <v>700</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
       <c r="C20">
         <v>100001</v>
       </c>
       <c r="D20">
         <v>700</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="4"/>
       <c r="C21">
         <v>100001</v>
       </c>
       <c r="D21">
         <v>700</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
         <v>10006</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C22">
@@ -831,51 +939,60 @@
       <c r="D22">
         <v>700</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
       <c r="C23">
         <v>100001</v>
       </c>
       <c r="D23">
         <v>700</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4"/>
       <c r="C24">
         <v>100001</v>
       </c>
       <c r="D24">
         <v>700</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4"/>
       <c r="C25">
         <v>100001</v>
       </c>
       <c r="D25">
         <v>700</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="E25" s="4"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>10007</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C26">
@@ -884,48 +1001,79 @@
       <c r="D26">
         <v>700</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="C27">
         <v>100001</v>
       </c>
       <c r="D27">
         <v>700</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28">
         <v>100001</v>
       </c>
       <c r="D28">
         <v>700</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
       <c r="C29">
         <v>100001</v>
       </c>
       <c r="D29">
         <v>700</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="35">
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="E22:E25"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
@@ -939,14 +1087,6 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E22:E25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
